--- a/custom/BSCS.xlsx
+++ b/custom/BSCS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Monday!$A$1:$I$30</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Monday!$A$1:$I$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Monday!$A$1:$I$30</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="423">
   <si>
     <t xml:space="preserve">MONDAY</t>
   </si>
@@ -81,7 +82,7 @@
     <t xml:space="preserve">DB-F                                                Uzaira Saeed</t>
   </si>
   <si>
-    <t xml:space="preserve">CP-Gr3(E,F,G3) Nauman Atique</t>
+    <t xml:space="preserve">CP-GR3(E,F,G3) Nauman Atique</t>
   </si>
   <si>
     <t xml:space="preserve">Discrete Str.-D                Hussain Mughal</t>
@@ -93,10 +94,10 @@
     <t xml:space="preserve">E2</t>
   </si>
   <si>
-    <t xml:space="preserve">CP-Gr1(A,B,G1) Nauman Atique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP-Gr2(C,D,G2) Nauman Atique</t>
+    <t xml:space="preserve">CP-GR1(A,B,G1) Nauman Atique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP-GR2(C,D,G2) Nauman Atique</t>
   </si>
   <si>
     <t xml:space="preserve">CA-GR2=(C,B2)                                              Faraz Idris</t>
@@ -120,7 +121,7 @@
     <t xml:space="preserve">OS-GR2=(C,D)                                              Shahbaz</t>
   </si>
   <si>
-    <t xml:space="preserve">OS-Gr1=(A,B)                                              Shahbaz</t>
+    <t xml:space="preserve">OS-GR1=(A,B)                                              Shahbaz</t>
   </si>
   <si>
     <t xml:space="preserve">COAL-E(E,G1)           Mahwish</t>
@@ -195,7 +196,7 @@
     <t xml:space="preserve">Algo-B                        M.Suleman                                </t>
   </si>
   <si>
-    <t xml:space="preserve">Algo-Gr1                            Shahar Bano</t>
+    <t xml:space="preserve">Algo-GR1                            Shahar Bano</t>
   </si>
   <si>
     <t xml:space="preserve">Algo-E                        M.Suleman                                </t>
@@ -315,7 +316,7 @@
     <t xml:space="preserve">CR-7</t>
   </si>
   <si>
-    <t xml:space="preserve">Discrete Str.- F             Hussain Mughal</t>
+    <t xml:space="preserve">Discrete Str.-F             Hussain Mughal</t>
   </si>
   <si>
     <t xml:space="preserve">Discrete Str.-B                Hussain Mughal</t>
@@ -375,7 +376,7 @@
     <t xml:space="preserve">OOAD-Lab-D                                                                    Neelum </t>
   </si>
   <si>
-    <t xml:space="preserve">OS-Lab Gr2=(C,D)                                              Nousheen Shoaib</t>
+    <t xml:space="preserve">OS-Lab-GR2=(C,D)                                              Nousheen Shoaib</t>
   </si>
   <si>
     <t xml:space="preserve">Lab-3</t>
@@ -456,7 +457,7 @@
     <t xml:space="preserve">ITC-G                    Ms. Atika</t>
   </si>
   <si>
-    <t xml:space="preserve">HCI- A                                Farrukh Hassan                     </t>
+    <t xml:space="preserve">HCI-A                                Farrukh Hassan                     </t>
   </si>
   <si>
     <t xml:space="preserve">HCI-E                                                             Farrukh Hassan                     </t>
@@ -471,13 +472,13 @@
     <t xml:space="preserve">HCI-C                                                  Farrukh Hassan                   </t>
   </si>
   <si>
-    <t xml:space="preserve">TOA-Gr3(E,F)                             M. Shahzad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA-Gr2(C,D)                             M. Shahzad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA-Gr1(A,B)                             M. Shahzad</t>
+    <t xml:space="preserve">TOA-GR3(E,F)                             M. Shahzad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA-GR2(C,D)                             M. Shahzad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA-GR1(A,B)                             M. Shahzad</t>
   </si>
   <si>
     <t xml:space="preserve">Discrete Str.-E                Nouman Durrani</t>
@@ -507,16 +508,16 @@
     <t xml:space="preserve">ENG-H1                             Sameera Sultan</t>
   </si>
   <si>
-    <t xml:space="preserve">FIS-Gr1                    Babar Ali</t>
+    <t xml:space="preserve">FIS-GR1                    Babar Ali</t>
   </si>
   <si>
     <t xml:space="preserve">ENG-C1                         Nazia Imam</t>
   </si>
   <si>
-    <t xml:space="preserve">NS-Gr1(A,B,C)           Dr. Sufian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NS-Gr2(D,E,F)           Dr. Sufian</t>
+    <t xml:space="preserve">NS-GR1(A,B,C)           Dr. Sufian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS-GR2(D,E,F)           Dr. Sufian</t>
   </si>
   <si>
     <t xml:space="preserve">CAL I-I                          Imran Ali Shah</t>
@@ -537,7 +538,7 @@
     <t xml:space="preserve">Algo-F                             Shahar Bano</t>
   </si>
   <si>
-    <t xml:space="preserve">IR-Gr1(A,B,C,D,E,F)                     M. Rafi</t>
+    <t xml:space="preserve">IR-GR1(A,B,C,D,E,F)                     M. Rafi</t>
   </si>
   <si>
     <t xml:space="preserve">HCI-D                                 Behraj  Khan                     </t>
@@ -570,10 +571,10 @@
     <t xml:space="preserve">BE-A                               Rabia Tabssum</t>
   </si>
   <si>
-    <t xml:space="preserve">DE-Gr1                                      Imran Ali Shah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE-Gr1                                              Imran Ali Shah</t>
+    <t xml:space="preserve">DE-GR1                                      Imran Ali Shah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE-GR1                                              Imran Ali Shah</t>
   </si>
   <si>
     <t xml:space="preserve">LA-A                                            Fahad Riaz</t>
@@ -585,13 +586,13 @@
     <t xml:space="preserve">LA-C                                           Fahad Riaz</t>
   </si>
   <si>
-    <t xml:space="preserve">F&amp;A-Gr1(A,B,C,G1)              M. Ahsan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLD-Gr1                   Abdullah Ali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM-Gr2(D,E,F,G2)               M. Wamiq</t>
+    <t xml:space="preserve">F&amp;A-GR1(A,B,C,G1)              M. Ahsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLD-GR1                   Abdullah Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM-GR2(D,E,F,G2)               M. Wamiq</t>
   </si>
   <si>
     <t xml:space="preserve">PIT-E                                   Dr. Jamshad                              </t>
@@ -600,7 +601,7 @@
     <t xml:space="preserve">PIT-C                                  Dr. Jamshad                              </t>
   </si>
   <si>
-    <t xml:space="preserve">MM-Gr1(A,B,C,G1)         M. wamiq</t>
+    <t xml:space="preserve">MM-GR1(A,B,C,G1)         M. wamiq</t>
   </si>
   <si>
     <t xml:space="preserve">ENG-G1                              Nazia Imam</t>
@@ -612,10 +613,10 @@
     <t xml:space="preserve">RM-GR1(A,B,C)                Dr. Khusro Mian</t>
   </si>
   <si>
-    <t xml:space="preserve">psycho-gr3(E, F,G3)                                         Sumaira Khanzada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psycho-gr2(C,D,G2) Sumaira Khanzada</t>
+    <t xml:space="preserve">psycho-GR3(E, F,G3)                                         Sumaira Khanzada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psycho-GR2(C,D,G2) Sumaira Khanzada</t>
   </si>
   <si>
     <t xml:space="preserve">CAL I-D                 Abdul Basit</t>
@@ -636,7 +637,7 @@
     <t xml:space="preserve">ENG-B2           Tauba Javaid</t>
   </si>
   <si>
-    <t xml:space="preserve">psycho-gr1(A, B,G1)             Sumaira Khanzada</t>
+    <t xml:space="preserve">psycho-GR1(A, B,G1)             Sumaira Khanzada</t>
   </si>
   <si>
     <t xml:space="preserve">IRS-A                                             Dr. Aziz-Ur-Rehman Saifee</t>
@@ -645,10 +646,10 @@
     <t xml:space="preserve">IRS-C                                      Dr. Aziz-Ur-Rehman Saifee</t>
   </si>
   <si>
-    <t xml:space="preserve">MB-Gr1                               M. Ahsan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F&amp;A-Gr2(D,E,F,G2)     M. Ahsan</t>
+    <t xml:space="preserve">MB-GR1                               M. Ahsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F&amp;A-GR2(D,E,F,G2)     M. Ahsan</t>
   </si>
   <si>
     <t xml:space="preserve">IRS-G                                     Dr. Aziz-Ur-Rehman Saifee</t>
@@ -660,7 +661,7 @@
     <t xml:space="preserve">ENG-B1       Sameera Sultan</t>
   </si>
   <si>
-    <t xml:space="preserve">DRE-Gr1                         Micheal Simon</t>
+    <t xml:space="preserve">DRE-GR1                         Micheal Simon</t>
   </si>
   <si>
     <t xml:space="preserve">ENG-D2                            Tauba Javaid</t>
@@ -672,10 +673,10 @@
     <t xml:space="preserve">OOAD-Lab-E                                                      M. Nadeem</t>
   </si>
   <si>
-    <t xml:space="preserve">WP-Gr2(D,E,F)               Dr. Zulfiqar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WP-Gr1(A,B,C)                       Dr. Zulfiqar</t>
+    <t xml:space="preserve">WP-GR2(D,E,F)               Dr. Zulfiqar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP-GR1(A,B,C)                       Dr. Zulfiqar</t>
   </si>
   <si>
     <t xml:space="preserve">DS-Lab E=(E,F2)                                                                    Anum</t>
@@ -792,7 +793,7 @@
     <t xml:space="preserve">PIT-E                                  Dr. Jamshad                              </t>
   </si>
   <si>
-    <t xml:space="preserve">MB-Gr1                  M. Ahsan</t>
+    <t xml:space="preserve">MB-GR1                  M. Ahsan</t>
   </si>
   <si>
     <t xml:space="preserve">IRS-F                  Shahzad Sheikh</t>
@@ -801,7 +802,7 @@
     <t xml:space="preserve">IRS-B                  Shahzad Sheikh</t>
   </si>
   <si>
-    <t xml:space="preserve">DRE-Gr1          Imicheal Simon</t>
+    <t xml:space="preserve">DRE-GR1          Imicheal Simon</t>
   </si>
   <si>
     <t xml:space="preserve">IRS-D                   Shahzad Sheikh</t>
@@ -852,13 +853,13 @@
     <t xml:space="preserve">DB-Lab-C                                                                                             Basit Jisani</t>
   </si>
   <si>
-    <t xml:space="preserve">CP-Lab Gr2(C,D,G2)                                                                       Javeria</t>
+    <t xml:space="preserve">CP-Lab-GR2(C,D,G2)                                                                       Javeria</t>
   </si>
   <si>
     <t xml:space="preserve">DB-Lab-F                                                                                             Basit Jisani</t>
   </si>
   <si>
-    <t xml:space="preserve">CP-Lab Gr1(A,B,G1)                            Javeria</t>
+    <t xml:space="preserve">CP-Lab-GR1(A,B,G1)                            Javeria</t>
   </si>
   <si>
     <t xml:space="preserve">ITC Lab-C(C1+C2)                                                                Abdul Aziz &amp; Solat Jabeen</t>
@@ -900,7 +901,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">ITC Tutorial I1                                                                                            Mahrukh  Khan</t>
+    <t xml:space="preserve">ITC Tutorial-I1                                                                                            Mahrukh  Khan</t>
   </si>
   <si>
     <t xml:space="preserve">IPM-GR1(A,B,C)  Ubaid Chawla</t>
@@ -927,7 +928,7 @@
     <t xml:space="preserve">CAL I-B                 Iftikhar</t>
   </si>
   <si>
-    <t xml:space="preserve">WP-Gr2(D,E,F)                                         Dr. Zulfiqar</t>
+    <t xml:space="preserve">WP-GR2(D,E,F)                                         Dr. Zulfiqar</t>
   </si>
   <si>
     <t xml:space="preserve">PIT-B                                       Khalid Soomro</t>
@@ -942,7 +943,7 @@
     <t xml:space="preserve">PIT-D                                      Khalid Soomro</t>
   </si>
   <si>
-    <t xml:space="preserve">NS-Gr1(A,B,C)                 Dr. Sufian</t>
+    <t xml:space="preserve">NS-GR1(A,B,C)                 Dr. Sufian</t>
   </si>
   <si>
     <t xml:space="preserve">DB-C                                      M.Rafi</t>
@@ -951,10 +952,10 @@
     <t xml:space="preserve">DB-A                              M.Rafi</t>
   </si>
   <si>
-    <t xml:space="preserve">FIS-Gr1                                 Babar Ali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ITC Tutorial  I2                                                                          Neelum</t>
+    <t xml:space="preserve">FIS-GR1                                 Babar Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ITC Tutorial-I2                                                                          Neelum</t>
   </si>
   <si>
     <t xml:space="preserve">IRS-I                                 Osama Sarfarz</t>
@@ -966,7 +967,7 @@
     <t xml:space="preserve">CAL I-I                                 Imran Ali Shah</t>
   </si>
   <si>
-    <t xml:space="preserve">DE-Gr1                        Imran Ali Shah</t>
+    <t xml:space="preserve">DE-GR1                        Imran Ali Shah</t>
   </si>
   <si>
     <t xml:space="preserve">IRS-H                  Shahzad Sheikh</t>
@@ -990,10 +991,10 @@
     <t xml:space="preserve">ENG-B1                         Sameera Sultan</t>
   </si>
   <si>
-    <t xml:space="preserve">psycho-gr3(E, F,G3)             Sumaira Khanzada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F&amp;A-Gr1(A,B,C,G1)     M. Ahsan</t>
+    <t xml:space="preserve">psycho-GR3(E, F,G3)             Sumaira Khanzada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F&amp;A-GR1(A,B,C,G1)     M. Ahsan</t>
   </si>
   <si>
     <t xml:space="preserve">IRS-E                                              Momin Fayyaz</t>
@@ -1002,13 +1003,13 @@
     <t xml:space="preserve">IRS-A                                 Dr. Aziz-Ur-Rehman Saifee</t>
   </si>
   <si>
-    <t xml:space="preserve">MM-Gr1(A,B,C,G1)     M. wamiq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM-Gr2(D,E,F,G2)     M. Wamiq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB-Gr1                             M. Ahsan</t>
+    <t xml:space="preserve">MM-GR1(A,B,C,G1)     M. wamiq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM-GR2(D,E,F,G2)     M. Wamiq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB-GR1                             M. Ahsan</t>
   </si>
   <si>
     <t xml:space="preserve">ENG-G2                                          Haris</t>
@@ -1050,7 +1051,7 @@
     <t xml:space="preserve">ITC Lab-E(E1+E2)                                                                Abdul Aziz &amp; Solat Jabeen</t>
   </si>
   <si>
-    <t xml:space="preserve">OS-Lab Gr1=(A,B)                                              Nousheen Shoaib</t>
+    <t xml:space="preserve">OS-Lab-GR1=(A,B)                                              Nousheen Shoaib</t>
   </si>
   <si>
     <t xml:space="preserve">COAL Lab-B                                                                                       Farah                             </t>
@@ -1080,7 +1081,7 @@
     <t xml:space="preserve">FRIDAY</t>
   </si>
   <si>
-    <t xml:space="preserve">HCI-C                                                           Farrukh Hassan                     </t>
+    <t xml:space="preserve">HCI-D                                           Behraj  Khan                     </t>
   </si>
   <si>
     <t xml:space="preserve">BE-C                                                 Kanwal Fatima</t>
@@ -1107,16 +1108,13 @@
     <t xml:space="preserve">HCI-B                                            Behraj  Khan                     </t>
   </si>
   <si>
-    <t xml:space="preserve">ITC Tutorial  B1                                                                         Tania Irum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCI-D                                           Behraj  Khan                     </t>
+    <t xml:space="preserve">ITC Tutorial-B1                                                                         Tania Irum</t>
   </si>
   <si>
     <t xml:space="preserve">HCI-A                                                             Farrukh Hassan                     </t>
   </si>
   <si>
-    <t xml:space="preserve">ITC Tutorial  B2                                                                        Awais Ahmed</t>
+    <t xml:space="preserve">ITC Tutorial-B2                                                                        Awais Ahmed</t>
   </si>
   <si>
     <t xml:space="preserve">COAL-C                          Mahwish</t>
@@ -1137,7 +1135,7 @@
     <t xml:space="preserve">OOAD-A                                        Amber</t>
   </si>
   <si>
-    <t xml:space="preserve">ITC Tutorial  A1                                                                                     Solat Jabeen</t>
+    <t xml:space="preserve">ITC Tutorial-A1                                                                                     Solat Jabeen</t>
   </si>
   <si>
     <t xml:space="preserve">OOAD-F                                          Amber</t>
@@ -1149,37 +1147,37 @@
     <t xml:space="preserve">OOAD-B                                        Amber</t>
   </si>
   <si>
-    <t xml:space="preserve">ITC Tutorial  E2                                                                        Abdul Aziz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC Tutorial  D1                                                                                             Tania Irum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC Tutorial  F1                                                                                                 Tania Irum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC Tutorial  G2                                                                  Abdul Aziz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC Tutorial  C1                                                                   Solat Jabeen</t>
+    <t xml:space="preserve">ITC Tutorial-E2                                                                        Abdul Aziz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITC Tutorial-D1                                                                                             Tania Irum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITC Tutorial-F1                                                                                                 Tania Irum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITC Tutorial-G2                                                                  Abdul Aziz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITC Tutorial-C1                                                                   Solat Jabeen</t>
   </si>
   <si>
     <t xml:space="preserve">ENG-B2                                      Tauba Javaid</t>
   </si>
   <si>
-    <t xml:space="preserve">ITC Tutorial  A2                                                                                                            Abdul Aziz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC Tutorial  C2                                                                       Abdul Aziz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC Tutorial  E1                                                                                Solat Jabeen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC Tutorial  D2                                                                                             Awais Ahmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC Tutorial  F2                                                                                                Awais Ahmed</t>
+    <t xml:space="preserve">ITC Tutorial-A2                                                                                                            Abdul Aziz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITC Tutorial-C2                                                                       Abdul Aziz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITC Tutorial-E1                                                                                Solat Jabeen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITC Tutorial-D2                                                                                             Awais Ahmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITC Tutorial-F2                                                                                                Awais Ahmed</t>
   </si>
   <si>
     <t xml:space="preserve">OOAD-E                                    Murtaza</t>
@@ -1188,28 +1186,28 @@
     <t xml:space="preserve">OOAD-C                                      Murtaza</t>
   </si>
   <si>
-    <t xml:space="preserve">ITC Tutorial  H2                                                                                         Rubab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC Tutorial H1                                                                         Mahrukh  Khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITC Tutorial  G1                                                                                            Mahrukh khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F&amp;A-Gr2(D,E,F,G2)            M. Ahsan</t>
+    <t xml:space="preserve">ITC Tutorial-H2                                                                                         Rubab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITC Tutorial-H1                                                                         Mahrukh  Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITC Tutorial-G1                                                                                            Mahrukh khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F&amp;A-GR2(D,E,F,G2)            M. Ahsan</t>
   </si>
   <si>
     <t xml:space="preserve">ENG-C2                                          Saqif Ansari</t>
   </si>
   <si>
-    <t xml:space="preserve">F&amp;A-Gr1(A,B,C,G1)                M. Ahsan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM-Gr2(D,E,F,G2)             M. Wamiq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM-Gr1(A,B,C,G1)                  M. wamiq</t>
+    <t xml:space="preserve">F&amp;A-GR1(A,B,C,G1)                M. Ahsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM-GR2(D,E,F,G2)             M. Wamiq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM-GR1(A,B,C,G1)                  M. wamiq</t>
   </si>
   <si>
     <t xml:space="preserve">ENG-I2                                        Saqif Ansari</t>
@@ -1272,10 +1270,10 @@
     <t xml:space="preserve">DS Lab-B= (B)                                                                                            Sehrish</t>
   </si>
   <si>
-    <t xml:space="preserve">OS-Lab Gr3=(E,F)                                                                      Nousheen Shoaib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP-Lab Gr3(E,F,G3)                                                                                  Javeria</t>
+    <t xml:space="preserve">OS-Lab-GR3=(E,F)                                                                      Nousheen Shoaib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP-Lab-GR3(E,F,G3)                                                                                  Javeria</t>
   </si>
   <si>
     <t xml:space="preserve">COAL Lab-A                                                                                                                    Zain</t>
@@ -1284,7 +1282,7 @@
     <t xml:space="preserve">COAL Lab-E  (E,G1)                                                                                                          Zain                                    </t>
   </si>
   <si>
-    <t xml:space="preserve">DLD-Lab Gr1                                                                                                        Mahrukh</t>
+    <t xml:space="preserve">DLD-Lab-GR1                                                                                                        Mahrukh</t>
   </si>
   <si>
     <t xml:space="preserve">ENG-B1                 Sameera Sultan</t>
@@ -1310,7 +1308,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="# ?/?"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1332,13 +1330,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1723,7 +1714,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1747,20 +1738,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="166">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1769,19 +1748,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1789,15 +1768,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1805,51 +1784,47 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1857,31 +1832,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1889,11 +1864,103 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1901,123 +1968,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2033,11 +2000,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2045,19 +2012,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2069,15 +2036,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2085,11 +2052,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2097,31 +2064,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2129,35 +2096,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2165,11 +2132,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2177,16 +2144,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2197,7 +2156,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2209,51 +2168,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2261,35 +2220,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2297,19 +2252,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2317,7 +2272,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2325,35 +2280,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2361,11 +2312,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2373,31 +2320,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2405,43 +2352,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2449,7 +2388,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2458,16 +2405,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 6" xfId="22" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2537,29 +2481,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="1:65536"/>
+  <dimension ref="1:31"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="50" zoomScalePageLayoutView="79" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="14.6761133603239"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6733,8 +6677,8 @@
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
       <c r="O5" s="0"/>
@@ -7752,27 +7696,27 @@
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
@@ -8790,29 +8734,29 @@
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="27" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
@@ -9830,29 +9774,29 @@
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="0"/>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="25"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="19"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
@@ -10870,14 +10814,14 @@
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="15" t="s">
         <v>43</v>
       </c>
@@ -10887,10 +10831,10 @@
       <c r="H9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="0"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
       <c r="O9" s="0"/>
@@ -11908,27 +11852,27 @@
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="27" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="26" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="27" t="s">
+      <c r="G10" s="22"/>
+      <c r="H10" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="27" t="s">
         <v>51</v>
       </c>
       <c r="J10" s="0"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
       <c r="O10" s="0"/>
@@ -12946,27 +12890,27 @@
       <c r="A11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="35"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="0"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
       <c r="O11" s="0"/>
@@ -13984,33 +13928,33 @@
       <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="35" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="0"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="19"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
@@ -15028,23 +14972,23 @@
       <c r="A13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="21" t="s">
         <v>68</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
@@ -16062,29 +16006,29 @@
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="30" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
       <c r="O14" s="0"/>
@@ -17102,33 +17046,33 @@
       <c r="A15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
@@ -18146,25 +18090,25 @@
       <c r="A16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="40" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="15" t="s">
         <v>88</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
       <c r="O16" s="0"/>
@@ -19182,23 +19126,23 @@
       <c r="A17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="42"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
@@ -20216,31 +20160,31 @@
       <c r="A18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>95</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="30" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
@@ -21258,23 +21202,23 @@
       <c r="A19" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="46" t="s">
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="J19" s="25"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="0"/>
@@ -22291,50 +22235,50 @@
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="25"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="24"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="0.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="25"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="6.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="51" t="s">
         <v>109</v>
       </c>
       <c r="B22" s="0"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
-      <c r="G22" s="44"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
-      <c r="J22" s="56"/>
+      <c r="J22" s="25"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
@@ -22350,132 +22294,131 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="25"/>
+      <c r="J23" s="24"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="33" t="s">
+      <c r="C24" s="54"/>
+      <c r="D24" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="57" t="s">
+      <c r="E24" s="32"/>
+      <c r="F24" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58" t="s">
+      <c r="G24" s="54"/>
+      <c r="H24" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="I24" s="58"/>
-      <c r="J24" s="25"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="59" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="23"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="0"/>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="25"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="15" t="s">
         <v>120</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="25"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="40" t="s">
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="40"/>
-      <c r="J27" s="25"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="25"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="25"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="45" t="s">
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="I30" s="46" t="s">
+      <c r="I30" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="J30" s="25"/>
+      <c r="J30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A1:I1"/>
@@ -22507,7 +22450,7 @@
   </sheetPr>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="57" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="57" zoomScalePageLayoutView="79" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
@@ -22515,20 +22458,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -22615,13 +22558,13 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
-      <c r="M4" s="67"/>
+      <c r="M4" s="64"/>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="65" t="s">
         <v>129</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -22633,25 +22576,25 @@
       <c r="E5" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="66" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="70"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="69" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -22660,16 +22603,16 @@
       <c r="E6" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="71" t="s">
         <v>19</v>
       </c>
     </row>
@@ -22677,28 +22620,28 @@
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="23" t="s">
         <v>139</v>
       </c>
     </row>
@@ -22706,51 +22649,51 @@
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="I8" s="75"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>148</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="24" t="s">
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="23" t="s">
         <v>149</v>
       </c>
     </row>
@@ -22758,10 +22701,10 @@
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -22770,12 +22713,12 @@
       <c r="E10" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="39" t="s">
         <v>153</v>
       </c>
     </row>
@@ -22783,28 +22726,28 @@
       <c r="A11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="35" t="s">
         <v>126</v>
       </c>
     </row>
@@ -22812,23 +22755,23 @@
       <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="H12" s="30" t="s">
+      <c r="F12" s="73"/>
+      <c r="H12" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="35" t="s">
         <v>165</v>
       </c>
     </row>
@@ -22836,53 +22779,53 @@
       <c r="A13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="G13" s="76"/>
-      <c r="H13" s="59" t="s">
+      <c r="G13" s="73"/>
+      <c r="H13" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="I13" s="75"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="35" t="s">
         <v>178</v>
       </c>
     </row>
@@ -22890,82 +22833,82 @@
       <c r="A15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="22" t="s">
+      <c r="E15" s="73"/>
+      <c r="F15" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>181</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="M15" s="67"/>
+      <c r="M15" s="64"/>
     </row>
     <row r="16" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="27" t="s">
+      <c r="F16" s="73"/>
+      <c r="G16" s="26" t="s">
         <v>186</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="I16" s="78"/>
-      <c r="M16" s="67"/>
+      <c r="I16" s="75"/>
+      <c r="M16" s="64"/>
     </row>
     <row r="17" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="56" t="s">
         <v>189</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>193</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="I17" s="39" t="s">
         <v>195</v>
       </c>
     </row>
@@ -22973,22 +22916,22 @@
       <c r="A18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="30" t="s">
+      <c r="D18" s="73"/>
+      <c r="E18" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="30" t="s">
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="35" t="s">
         <v>200</v>
       </c>
     </row>
@@ -22996,26 +22939,26 @@
       <c r="A19" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="76"/>
+      <c r="C19" s="29" t="s">
         <v>201</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>205</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="35" t="s">
         <v>207</v>
       </c>
     </row>
@@ -23023,164 +22966,164 @@
       <c r="A20" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81" t="s">
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="45" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="87"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="84"/>
     </row>
     <row r="22" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
     </row>
     <row r="23" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="90" t="s">
+      <c r="C23" s="86"/>
+      <c r="D23" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="E23" s="90" t="s">
+      <c r="E23" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="93"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="90"/>
     </row>
     <row r="24" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="33" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="94" t="s">
+      <c r="E24" s="32"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="I24" s="94"/>
+      <c r="I24" s="91"/>
     </row>
     <row r="25" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="35"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="34"/>
     </row>
     <row r="26" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="97"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="94"/>
     </row>
     <row r="27" customFormat="false" ht="6.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="98"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="97"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="94"/>
     </row>
     <row r="28" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="78"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="75"/>
     </row>
     <row r="29" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="D29" s="99"/>
-      <c r="E29" s="45" t="s">
+      <c r="D29" s="96"/>
+      <c r="E29" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="G29" s="99"/>
-      <c r="H29" s="45" t="s">
+      <c r="G29" s="96"/>
+      <c r="H29" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="I29" s="46" t="s">
+      <c r="I29" s="45" t="s">
         <v>225</v>
       </c>
     </row>
@@ -23213,7 +23156,7 @@
   </sheetPr>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="60" zoomScalePageLayoutView="79" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
@@ -23221,20 +23164,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -23344,8 +23287,8 @@
       <c r="G5" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="101" t="s">
+      <c r="H5" s="97"/>
+      <c r="I5" s="98" t="s">
         <v>30</v>
       </c>
     </row>
@@ -23353,53 +23296,53 @@
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="102" t="s">
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="99" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="95"/>
-      <c r="I6" s="24" t="s">
+      <c r="H6" s="92"/>
+      <c r="I6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
     </row>
     <row r="7" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="I7" s="94" t="s">
+      <c r="I7" s="91" t="s">
         <v>135</v>
       </c>
     </row>
@@ -23407,39 +23350,39 @@
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="59" t="s">
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="I8" s="75"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="15" t="s">
@@ -23451,134 +23394,134 @@
       <c r="H9" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>152</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="22" t="s">
+      <c r="D10" s="73"/>
+      <c r="E10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="59" t="s">
+      <c r="F10" s="73"/>
+      <c r="G10" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="I10" s="75"/>
+      <c r="I10" s="72"/>
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="56" t="s">
         <v>238</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="37"/>
-      <c r="O11" s="67"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="64"/>
     </row>
     <row r="12" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="22" t="s">
+      <c r="F12" s="73"/>
+      <c r="G12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="75"/>
+      <c r="I12" s="72"/>
     </row>
     <row r="13" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="59" t="s">
+      <c r="D13" s="52"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="I13" s="75"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="35" t="s">
         <v>249</v>
       </c>
     </row>
@@ -23586,26 +23529,26 @@
       <c r="A15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="G15" s="76"/>
-      <c r="H15" s="30" t="s">
+      <c r="G15" s="73"/>
+      <c r="H15" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="35" t="s">
         <v>252</v>
       </c>
     </row>
@@ -23613,10 +23556,10 @@
       <c r="A16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="56" t="s">
         <v>189</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -23625,53 +23568,52 @@
       <c r="E16" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="G16" s="95"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="75"/>
-      <c r="L16" s="104"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="75"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="72"/>
     </row>
     <row r="18" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="105"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="30" t="s">
+      <c r="G18" s="73"/>
+      <c r="H18" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="35" t="s">
         <v>259</v>
       </c>
     </row>
@@ -23679,16 +23621,16 @@
       <c r="A19" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>260</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="29" t="s">
         <v>197</v>
       </c>
       <c r="G19" s="15" t="s">
@@ -23697,16 +23639,16 @@
       <c r="H19" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="I19" s="35"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="56" t="s">
         <v>157</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -23715,10 +23657,10 @@
       <c r="E20" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="106" t="s">
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="27" t="s">
         <v>263</v>
       </c>
     </row>
@@ -23726,22 +23668,22 @@
       <c r="A21" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="45" t="s">
+      <c r="B21" s="102"/>
+      <c r="C21" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="45" t="s">
+      <c r="D21" s="77"/>
+      <c r="E21" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="G21" s="99"/>
-      <c r="H21" s="45" t="s">
+      <c r="G21" s="96"/>
+      <c r="H21" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="I21" s="45" t="s">
         <v>268</v>
       </c>
     </row>
@@ -23749,11 +23691,11 @@
       <c r="A22" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="108"/>
-      <c r="D22" s="67"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="111"/>
+      <c r="B22" s="103"/>
+      <c r="D22" s="64"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="106"/>
     </row>
     <row r="23" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
@@ -23772,100 +23714,100 @@
       <c r="A24" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="107" t="s">
         <v>269</v>
       </c>
-      <c r="C24" s="112"/>
-      <c r="D24" s="113" t="s">
+      <c r="C24" s="107"/>
+      <c r="D24" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="E24" s="113"/>
-      <c r="F24" s="114" t="s">
+      <c r="E24" s="108"/>
+      <c r="F24" s="109" t="s">
         <v>271</v>
       </c>
-      <c r="G24" s="114"/>
-      <c r="H24" s="115" t="s">
+      <c r="G24" s="109"/>
+      <c r="H24" s="110" t="s">
         <v>272</v>
       </c>
-      <c r="I24" s="115"/>
+      <c r="I24" s="110"/>
     </row>
     <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="67"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="64"/>
       <c r="F25" s="15" t="s">
         <v>274</v>
       </c>
       <c r="G25" s="15"/>
-      <c r="H25" s="94" t="s">
+      <c r="H25" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="I25" s="94"/>
+      <c r="I25" s="91"/>
     </row>
     <row r="26" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="75"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="72"/>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="117" t="s">
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112" t="s">
         <v>277</v>
       </c>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117" t="s">
+      <c r="E27" s="112"/>
+      <c r="F27" s="112" t="s">
         <v>278</v>
       </c>
-      <c r="G27" s="117"/>
-      <c r="H27" s="118" t="s">
+      <c r="G27" s="112"/>
+      <c r="H27" s="113" t="s">
         <v>279</v>
       </c>
-      <c r="I27" s="118"/>
+      <c r="I27" s="113"/>
     </row>
     <row r="28" customFormat="false" ht="2.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="119"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="121"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="116"/>
     </row>
     <row r="29" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="122"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="123"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -23902,7 +23844,7 @@
   </sheetPr>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="59" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="59" zoomScalePageLayoutView="79" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="S14" activeCellId="0" sqref="S14"/>
@@ -23910,17 +23852,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -24012,43 +23954,43 @@
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="124"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="13" t="s">
         <v>281</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>283</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="G5" s="67"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="I5" s="111"/>
+      <c r="I5" s="106"/>
     </row>
     <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="22" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="24" t="s">
+      <c r="H6" s="64"/>
+      <c r="I6" s="23" t="s">
         <v>25</v>
       </c>
       <c r="P6" s="0" t="s">
@@ -24059,22 +24001,22 @@
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="59" t="s">
+      <c r="B7" s="101"/>
+      <c r="C7" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="125" t="s">
+      <c r="E7" s="120" t="s">
         <v>290</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="24" t="s">
+      <c r="G7" s="64"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="23" t="s">
         <v>39</v>
       </c>
     </row>
@@ -24082,26 +24024,26 @@
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="56" t="s">
         <v>292</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="74" t="s">
+      <c r="G8" s="73"/>
+      <c r="H8" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="23" t="s">
         <v>148</v>
       </c>
     </row>
@@ -24109,26 +24051,26 @@
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="59" t="s">
+      <c r="E9" s="64"/>
+      <c r="F9" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="56" t="s">
         <v>292</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="23" t="s">
         <v>295</v>
       </c>
     </row>
@@ -24136,49 +24078,49 @@
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="98" t="s">
         <v>296</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="75"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="72"/>
     </row>
     <row r="11" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="121"/>
+      <c r="C11" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="74" t="s">
+      <c r="H11" s="64"/>
+      <c r="I11" s="71" t="s">
         <v>303</v>
       </c>
     </row>
@@ -24186,45 +24128,45 @@
       <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="59" t="s">
+      <c r="D12" s="73"/>
+      <c r="E12" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="75"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="72"/>
     </row>
     <row r="13" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="G13" s="76"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="127" t="s">
+      <c r="G13" s="73"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="122" t="s">
         <v>308</v>
       </c>
     </row>
@@ -24232,26 +24174,26 @@
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="22" t="s">
+      <c r="E14" s="73"/>
+      <c r="F14" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="35" t="s">
         <v>256</v>
       </c>
     </row>
@@ -24259,28 +24201,28 @@
       <c r="A15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="35" t="s">
         <v>78</v>
       </c>
     </row>
@@ -24288,7 +24230,7 @@
       <c r="A16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>319</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -24297,15 +24239,15 @@
       <c r="D16" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="73"/>
+      <c r="F16" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="G16" s="128" t="s">
+      <c r="G16" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="H16" s="76"/>
-      <c r="I16" s="106" t="s">
+      <c r="H16" s="73"/>
+      <c r="I16" s="27" t="s">
         <v>263</v>
       </c>
     </row>
@@ -24313,22 +24255,22 @@
       <c r="A17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="105"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="15" t="s">
         <v>321</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E17" s="129"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="30" t="s">
+      <c r="E17" s="123"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="35" t="s">
         <v>323</v>
       </c>
     </row>
@@ -24336,7 +24278,7 @@
       <c r="A18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -24345,15 +24287,15 @@
       <c r="D18" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="22" t="s">
+      <c r="E18" s="52"/>
+      <c r="F18" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="H18" s="95"/>
-      <c r="I18" s="36" t="s">
+      <c r="H18" s="92"/>
+      <c r="I18" s="35" t="s">
         <v>328</v>
       </c>
     </row>
@@ -24361,20 +24303,20 @@
       <c r="A19" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="126"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="121"/>
+      <c r="C19" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="30" t="s">
+      <c r="E19" s="73"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="35" t="s">
         <v>330</v>
       </c>
     </row>
@@ -24382,176 +24324,176 @@
       <c r="A20" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="30" t="s">
+      <c r="B20" s="121"/>
+      <c r="C20" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="G20" s="76"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I20" s="75"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="124" t="s">
         <v>333</v>
       </c>
-      <c r="C21" s="131"/>
-      <c r="D21" s="45" t="s">
+      <c r="C21" s="125"/>
+      <c r="D21" s="44" t="s">
         <v>334</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="132" t="s">
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="126" t="s">
         <v>335</v>
       </c>
-      <c r="I21" s="133"/>
+      <c r="I21" s="127"/>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
     </row>
-    <row r="23" s="136" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" s="130" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="134" t="s">
+      <c r="B23" s="128" t="s">
         <v>336</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="57" t="s">
+      <c r="C23" s="128"/>
+      <c r="D23" s="54" t="s">
         <v>337</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="115" t="s">
+      <c r="E23" s="54"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="110" t="s">
         <v>338</v>
       </c>
-      <c r="I23" s="115"/>
+      <c r="I23" s="110"/>
     </row>
     <row r="24" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="131" t="s">
         <v>339</v>
       </c>
-      <c r="C24" s="137"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="22" t="s">
+      <c r="C24" s="131"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="111"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="138"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="75"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="76"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="73"/>
       <c r="E26" s="15" t="s">
         <v>341</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="127" t="s">
+      <c r="G26" s="73"/>
+      <c r="H26" s="122" t="s">
         <v>342</v>
       </c>
-      <c r="I26" s="127"/>
+      <c r="I26" s="122"/>
     </row>
     <row r="27" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="138"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
       <c r="E27" s="15" t="s">
         <v>343</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="75"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="72"/>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="138"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="75"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="72"/>
     </row>
     <row r="29" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="139" t="s">
+      <c r="B29" s="133" t="s">
         <v>344</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="44" t="s">
         <v>345</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="44" t="s">
         <v>347</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G29" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="H29" s="140"/>
-      <c r="I29" s="46" t="s">
+      <c r="H29" s="134"/>
+      <c r="I29" s="45" t="s">
         <v>348</v>
       </c>
     </row>
@@ -24584,26 +24526,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="55" zoomScalePageLayoutView="79" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="Q16" activeCellId="0" sqref="Q16"/>
+      <selection pane="bottomLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.6396761133603"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -24695,7 +24637,7 @@
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="65" t="s">
         <v>350</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -24704,369 +24646,368 @@
       <c r="D5" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="141" t="s">
+      <c r="E5" s="97"/>
+      <c r="F5" s="135" t="s">
         <v>353</v>
       </c>
-      <c r="G5" s="142" t="s">
+      <c r="G5" s="136" t="s">
         <v>354</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="I5" s="143"/>
+      <c r="I5" s="137"/>
     </row>
     <row r="6" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="144" t="s">
+      <c r="F6" s="138" t="s">
         <v>359</v>
       </c>
-      <c r="G6" s="142"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="146"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="74" t="s">
+        <v>350</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="56" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="59" t="s">
+      <c r="E7" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="138" t="s">
         <v>361</v>
       </c>
-      <c r="E7" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="144" t="s">
-        <v>362</v>
-      </c>
-      <c r="G7" s="142"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="75"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="72"/>
     </row>
     <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="F8" s="139" t="s">
         <v>363</v>
       </c>
-      <c r="F8" s="147" t="s">
-        <v>364</v>
-      </c>
-      <c r="G8" s="142"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="146"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="140" t="s">
         <v>365</v>
       </c>
-      <c r="D9" s="59" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>291</v>
-      </c>
-      <c r="F9" s="148" t="s">
+      <c r="G9" s="136"/>
+      <c r="H9" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="I9" s="75"/>
-      <c r="N9" s="104"/>
+      <c r="I9" s="72"/>
     </row>
     <row r="10" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="E10" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="F10" s="141" t="s">
         <v>370</v>
       </c>
-      <c r="F10" s="149" t="s">
+      <c r="G10" s="136"/>
+      <c r="H10" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="G10" s="142"/>
-      <c r="H10" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="120" t="s">
         <v>373</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="D11" s="120" t="s">
         <v>374</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="E11" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="G11" s="136"/>
+      <c r="H11" s="28" t="s">
         <v>376</v>
       </c>
-      <c r="G11" s="142"/>
-      <c r="H11" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="I11" s="75"/>
+      <c r="I11" s="72"/>
     </row>
     <row r="12" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="30" t="s">
+      <c r="E12" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" s="142" t="s">
+        <v>295</v>
+      </c>
+      <c r="G12" s="136"/>
+      <c r="H12" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="F12" s="150" t="s">
-        <v>295</v>
-      </c>
-      <c r="G12" s="142"/>
-      <c r="H12" s="29" t="s">
-        <v>380</v>
-      </c>
-      <c r="I12" s="75"/>
+      <c r="I12" s="72"/>
     </row>
     <row r="13" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="120" t="s">
         <v>381</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="D13" s="120" t="s">
         <v>382</v>
       </c>
-      <c r="D13" s="125" t="s">
+      <c r="E13" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="F13" s="142" t="s">
         <v>384</v>
       </c>
-      <c r="F13" s="150" t="s">
-        <v>385</v>
-      </c>
-      <c r="G13" s="142"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="39"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="143" t="s">
+        <v>385</v>
+      </c>
+      <c r="C14" s="143" t="s">
         <v>386</v>
       </c>
-      <c r="C14" s="151" t="s">
+      <c r="D14" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="F14" s="152"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="154"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="146"/>
     </row>
     <row r="15" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="30" t="s">
+      <c r="F15" s="139" t="s">
         <v>390</v>
       </c>
-      <c r="F15" s="147" t="s">
-        <v>391</v>
-      </c>
-      <c r="G15" s="142"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="39"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="139" t="s">
         <v>392</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="147" t="s">
-        <v>393</v>
-      </c>
-      <c r="G16" s="142"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="157"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="149"/>
     </row>
     <row r="17" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" s="73"/>
+      <c r="D17" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="E17" s="76"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="39"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="30" t="s">
+      <c r="E18" s="73"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="29" t="s">
-        <v>398</v>
-      </c>
-      <c r="I18" s="35"/>
+      <c r="I18" s="34"/>
     </row>
     <row r="19" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>320</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="E19" s="73"/>
+      <c r="F19" s="139" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" s="136"/>
+      <c r="H19" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="147" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="142"/>
-      <c r="H19" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="I19" s="146"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" customFormat="false" ht="3.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="158"/>
+      <c r="C20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="150"/>
     </row>
     <row r="21" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="D21" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="E21" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="E21" s="128" t="s">
+      <c r="F21" s="140" t="s">
         <v>404</v>
       </c>
-      <c r="F21" s="148" t="s">
+      <c r="G21" s="136"/>
+      <c r="H21" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="G21" s="142"/>
-      <c r="H21" s="29" t="s">
+      <c r="I21" s="35" t="s">
         <v>406</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="160"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="152"/>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
@@ -25082,127 +25023,127 @@
       <c r="I23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="161" t="s">
+      <c r="B24" s="153" t="s">
+        <v>407</v>
+      </c>
+      <c r="C24" s="153"/>
+      <c r="D24" s="154" t="s">
         <v>408</v>
       </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="162" t="s">
+      <c r="E24" s="154"/>
+      <c r="F24" s="155" t="s">
         <v>409</v>
       </c>
-      <c r="E24" s="162"/>
-      <c r="F24" s="163" t="s">
+      <c r="G24" s="156" t="s">
         <v>410</v>
       </c>
-      <c r="G24" s="164" t="s">
+      <c r="H24" s="157" t="s">
         <v>411</v>
       </c>
-      <c r="H24" s="165" t="s">
-        <v>412</v>
-      </c>
-      <c r="I24" s="165"/>
+      <c r="I24" s="157"/>
     </row>
     <row r="25" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="138"/>
+      <c r="B25" s="132"/>
       <c r="C25" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="159" t="s">
         <v>413</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="167" t="s">
-        <v>414</v>
-      </c>
-      <c r="I25" s="167"/>
+      <c r="I25" s="159"/>
     </row>
     <row r="26" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="138"/>
+      <c r="B26" s="132"/>
       <c r="C26" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D26" s="15"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="111"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="106"/>
     </row>
     <row r="27" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="138"/>
+      <c r="B27" s="132"/>
       <c r="C27" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="161" t="s">
         <v>416</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="169" t="s">
-        <v>417</v>
-      </c>
-      <c r="I27" s="169"/>
+      <c r="I27" s="161"/>
     </row>
     <row r="28" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="170"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="111"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="106"/>
     </row>
     <row r="29" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="170"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="171" t="s">
-        <v>418</v>
-      </c>
-      <c r="I29" s="171"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="163" t="s">
+        <v>417</v>
+      </c>
+      <c r="I29" s="163"/>
     </row>
     <row r="30" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B30" s="139" t="s">
+      <c r="B30" s="133" t="s">
+        <v>418</v>
+      </c>
+      <c r="C30" s="77"/>
+      <c r="D30" s="44" t="s">
         <v>419</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="45" t="s">
+      <c r="E30" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="F30" s="164" t="s">
         <v>421</v>
       </c>
-      <c r="F30" s="172" t="s">
+      <c r="G30" s="156"/>
+      <c r="H30" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="G30" s="164"/>
-      <c r="H30" s="43" t="s">
-        <v>423</v>
-      </c>
-      <c r="I30" s="173"/>
+      <c r="I30" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="14">
